--- a/MAP/map.xlsx
+++ b/MAP/map.xlsx
@@ -1,387 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bat_dau_game\MAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2049D3-2F7B-4A7C-90CA-2862A274FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -389,311 +46,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -701,6 +89,34 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -721,7 +137,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.599963377788629"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -741,8 +171,92 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -751,6 +265,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1008,27 +525,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CB45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CH7" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="V12" workbookViewId="0">
+      <selection activeCell="CG47" sqref="CG47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.62857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="3.57142857142857"/>
-    <col min="16" max="16" width="3.57142857142857"/>
-    <col min="38" max="38" width="3.57142857142857"/>
-    <col min="56" max="56" width="3.57142857142857"/>
+    <col min="6" max="6" width="3.625"/>
+    <col min="16" max="16" width="3.625"/>
+    <col min="38" max="38" width="3.625"/>
+    <col min="44" max="44" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.625"/>
+    <col min="66" max="66" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:100">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1267,10 +789,70 @@
         <v>0</v>
       </c>
       <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:100">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1509,10 +1091,70 @@
         <v>0</v>
       </c>
       <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:100">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1643,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1751,10 +1393,70 @@
         <v>4</v>
       </c>
       <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:100">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1951,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -1993,10 +1695,70 @@
         <v>8</v>
       </c>
       <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:100">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2235,10 +1997,70 @@
         <v>8</v>
       </c>
       <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:100">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2252,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -2264,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2477,10 +2299,70 @@
         <v>0</v>
       </c>
       <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:100">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2719,10 +2601,70 @@
         <v>0</v>
       </c>
       <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:100">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2961,10 +2903,70 @@
         <v>0</v>
       </c>
       <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:100">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3203,10 +3205,70 @@
         <v>0</v>
       </c>
       <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>1</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:100">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3445,10 +3507,70 @@
         <v>0</v>
       </c>
       <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>1</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>1</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:100">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3687,10 +3809,70 @@
         <v>0</v>
       </c>
       <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>1</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:100">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3929,10 +4111,70 @@
         <v>0</v>
       </c>
       <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>1</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>1</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>1</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:100">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4171,10 +4413,70 @@
         <v>0</v>
       </c>
       <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:100">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4413,10 +4715,70 @@
         <v>0</v>
       </c>
       <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>1</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>1</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>1</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>2</v>
+      </c>
+      <c r="CQ14">
+        <v>2</v>
+      </c>
+      <c r="CR14">
+        <v>2</v>
+      </c>
+      <c r="CS14">
+        <v>2</v>
+      </c>
+      <c r="CT14">
+        <v>2</v>
+      </c>
+      <c r="CU14">
+        <v>2</v>
+      </c>
+      <c r="CV14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:100">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4643,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BY15">
         <v>0</v>
@@ -4655,10 +5017,70 @@
         <v>0</v>
       </c>
       <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>1</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>1</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>1</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:100">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4897,10 +5319,70 @@
         <v>0</v>
       </c>
       <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>1</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>1</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>1</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:100">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5139,10 +5621,70 @@
         <v>0</v>
       </c>
       <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>1</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>1</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>1</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:100">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5381,10 +5923,70 @@
         <v>8</v>
       </c>
       <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>1</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>1</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>1</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:100">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5623,10 +6225,70 @@
         <v>8</v>
       </c>
       <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>1</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>1</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>1</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:100">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5865,10 +6527,70 @@
         <v>8</v>
       </c>
       <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>1</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>1</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:100">
       <c r="A21">
         <v>8</v>
       </c>
@@ -6107,10 +6829,70 @@
         <v>0</v>
       </c>
       <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:100">
       <c r="A22">
         <v>8</v>
       </c>
@@ -6349,10 +7131,70 @@
         <v>0</v>
       </c>
       <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>0</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>0</v>
+      </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:100">
       <c r="A23">
         <v>8</v>
       </c>
@@ -6591,10 +7433,70 @@
         <v>0</v>
       </c>
       <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23">
+        <v>0</v>
+      </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>0</v>
+      </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>2</v>
+      </c>
+      <c r="CS23">
+        <v>2</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:100">
       <c r="A24">
         <v>8</v>
       </c>
@@ -6833,10 +7735,70 @@
         <v>0</v>
       </c>
       <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>0</v>
+      </c>
+      <c r="CE24">
+        <v>0</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>0</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
+        <v>0</v>
+      </c>
+      <c r="CM24">
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>0</v>
+      </c>
+      <c r="CO24">
+        <v>0</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:100">
       <c r="A25">
         <v>8</v>
       </c>
@@ -7075,10 +8037,70 @@
         <v>0</v>
       </c>
       <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0</v>
+      </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:100">
       <c r="A26">
         <v>8</v>
       </c>
@@ -7317,10 +8339,70 @@
         <v>0</v>
       </c>
       <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>0</v>
+      </c>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>0</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26">
+        <v>0</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:80">
+    <row r="27" spans="1:100">
       <c r="A27">
         <v>8</v>
       </c>
@@ -7559,10 +8641,70 @@
         <v>0</v>
       </c>
       <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
+      <c r="CK27">
+        <v>0</v>
+      </c>
+      <c r="CL27">
+        <v>0</v>
+      </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>0</v>
+      </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:80">
+    <row r="28" spans="1:100">
       <c r="A28">
         <v>8</v>
       </c>
@@ -7801,10 +8943,70 @@
         <v>0</v>
       </c>
       <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
+        <v>0</v>
+      </c>
+      <c r="CE28">
+        <v>2</v>
+      </c>
+      <c r="CF28">
+        <v>2</v>
+      </c>
+      <c r="CG28">
+        <v>2</v>
+      </c>
+      <c r="CH28">
+        <v>2</v>
+      </c>
+      <c r="CI28">
+        <v>2</v>
+      </c>
+      <c r="CJ28">
+        <v>2</v>
+      </c>
+      <c r="CK28">
+        <v>2</v>
+      </c>
+      <c r="CL28">
+        <v>2</v>
+      </c>
+      <c r="CM28">
+        <v>2</v>
+      </c>
+      <c r="CN28">
+        <v>2</v>
+      </c>
+      <c r="CO28">
+        <v>0</v>
+      </c>
+      <c r="CP28">
+        <v>0</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
+      <c r="CT28">
+        <v>0</v>
+      </c>
+      <c r="CU28">
+        <v>0</v>
+      </c>
+      <c r="CV28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:80">
+    <row r="29" spans="1:100">
       <c r="A29">
         <v>8</v>
       </c>
@@ -8022,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BV29">
         <v>0</v>
@@ -8043,10 +9245,70 @@
         <v>0</v>
       </c>
       <c r="CB29">
+        <v>0</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>0</v>
+      </c>
+      <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29">
+        <v>0</v>
+      </c>
+      <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>0</v>
+      </c>
+      <c r="CK29">
+        <v>0</v>
+      </c>
+      <c r="CL29">
+        <v>0</v>
+      </c>
+      <c r="CM29">
+        <v>0</v>
+      </c>
+      <c r="CN29">
+        <v>0</v>
+      </c>
+      <c r="CO29">
+        <v>0</v>
+      </c>
+      <c r="CP29">
+        <v>0</v>
+      </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="CS29">
+        <v>0</v>
+      </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
+      <c r="CU29">
+        <v>0</v>
+      </c>
+      <c r="CV29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:80">
+    <row r="30" spans="1:100">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8285,10 +9547,70 @@
         <v>0</v>
       </c>
       <c r="CB30">
+        <v>0</v>
+      </c>
+      <c r="CC30">
+        <v>0</v>
+      </c>
+      <c r="CD30">
+        <v>0</v>
+      </c>
+      <c r="CE30">
+        <v>0</v>
+      </c>
+      <c r="CF30">
+        <v>0</v>
+      </c>
+      <c r="CG30">
+        <v>0</v>
+      </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
+        <v>0</v>
+      </c>
+      <c r="CK30">
+        <v>0</v>
+      </c>
+      <c r="CL30">
+        <v>0</v>
+      </c>
+      <c r="CM30">
+        <v>0</v>
+      </c>
+      <c r="CN30">
+        <v>0</v>
+      </c>
+      <c r="CO30">
+        <v>0</v>
+      </c>
+      <c r="CP30">
+        <v>0</v>
+      </c>
+      <c r="CQ30">
+        <v>0</v>
+      </c>
+      <c r="CR30">
+        <v>0</v>
+      </c>
+      <c r="CS30">
+        <v>0</v>
+      </c>
+      <c r="CT30">
+        <v>0</v>
+      </c>
+      <c r="CU30">
+        <v>0</v>
+      </c>
+      <c r="CV30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:80">
+    <row r="31" spans="1:100">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8527,10 +9849,70 @@
         <v>0</v>
       </c>
       <c r="CB31">
+        <v>0</v>
+      </c>
+      <c r="CC31">
+        <v>0</v>
+      </c>
+      <c r="CD31">
+        <v>0</v>
+      </c>
+      <c r="CE31">
+        <v>0</v>
+      </c>
+      <c r="CF31">
+        <v>0</v>
+      </c>
+      <c r="CG31">
+        <v>0</v>
+      </c>
+      <c r="CH31">
+        <v>0</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>0</v>
+      </c>
+      <c r="CK31">
+        <v>0</v>
+      </c>
+      <c r="CL31">
+        <v>0</v>
+      </c>
+      <c r="CM31">
+        <v>0</v>
+      </c>
+      <c r="CN31">
+        <v>0</v>
+      </c>
+      <c r="CO31">
+        <v>0</v>
+      </c>
+      <c r="CP31">
+        <v>0</v>
+      </c>
+      <c r="CQ31">
+        <v>0</v>
+      </c>
+      <c r="CR31">
+        <v>0</v>
+      </c>
+      <c r="CS31">
+        <v>0</v>
+      </c>
+      <c r="CT31">
+        <v>0</v>
+      </c>
+      <c r="CU31">
+        <v>0</v>
+      </c>
+      <c r="CV31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:80">
+    <row r="32" spans="1:100">
       <c r="A32">
         <v>8</v>
       </c>
@@ -8769,10 +10151,70 @@
         <v>0</v>
       </c>
       <c r="CB32">
+        <v>0</v>
+      </c>
+      <c r="CC32">
+        <v>0</v>
+      </c>
+      <c r="CD32">
+        <v>0</v>
+      </c>
+      <c r="CE32">
+        <v>0</v>
+      </c>
+      <c r="CF32">
+        <v>0</v>
+      </c>
+      <c r="CG32">
+        <v>0</v>
+      </c>
+      <c r="CH32">
+        <v>0</v>
+      </c>
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
+        <v>0</v>
+      </c>
+      <c r="CK32">
+        <v>0</v>
+      </c>
+      <c r="CL32">
+        <v>0</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>0</v>
+      </c>
+      <c r="CU32">
+        <v>0</v>
+      </c>
+      <c r="CV32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:80">
+    <row r="33" spans="1:100">
       <c r="A33">
         <v>8</v>
       </c>
@@ -8999,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="BX33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY33">
         <v>0</v>
@@ -9011,10 +10453,70 @@
         <v>0</v>
       </c>
       <c r="CB33">
+        <v>0</v>
+      </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
+      <c r="CD33">
+        <v>0</v>
+      </c>
+      <c r="CE33">
+        <v>0</v>
+      </c>
+      <c r="CF33">
+        <v>0</v>
+      </c>
+      <c r="CG33">
+        <v>0</v>
+      </c>
+      <c r="CH33">
+        <v>0</v>
+      </c>
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
+        <v>0</v>
+      </c>
+      <c r="CK33">
+        <v>0</v>
+      </c>
+      <c r="CL33">
+        <v>0</v>
+      </c>
+      <c r="CM33">
+        <v>0</v>
+      </c>
+      <c r="CN33">
+        <v>0</v>
+      </c>
+      <c r="CO33">
+        <v>0</v>
+      </c>
+      <c r="CP33">
+        <v>0</v>
+      </c>
+      <c r="CQ33">
+        <v>0</v>
+      </c>
+      <c r="CR33">
+        <v>0</v>
+      </c>
+      <c r="CS33">
+        <v>0</v>
+      </c>
+      <c r="CT33">
+        <v>0</v>
+      </c>
+      <c r="CU33">
+        <v>0</v>
+      </c>
+      <c r="CV33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:80">
+    <row r="34" spans="1:100">
       <c r="A34">
         <v>8</v>
       </c>
@@ -9241,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="BX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ34">
         <v>0</v>
@@ -9253,10 +10755,70 @@
         <v>0</v>
       </c>
       <c r="CB34">
+        <v>0</v>
+      </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
+      <c r="CD34">
+        <v>0</v>
+      </c>
+      <c r="CE34">
+        <v>0</v>
+      </c>
+      <c r="CF34">
+        <v>0</v>
+      </c>
+      <c r="CG34">
+        <v>0</v>
+      </c>
+      <c r="CH34">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>0</v>
+      </c>
+      <c r="CK34">
+        <v>0</v>
+      </c>
+      <c r="CL34">
+        <v>0</v>
+      </c>
+      <c r="CM34">
+        <v>0</v>
+      </c>
+      <c r="CN34">
+        <v>0</v>
+      </c>
+      <c r="CO34">
+        <v>0</v>
+      </c>
+      <c r="CP34">
+        <v>0</v>
+      </c>
+      <c r="CQ34">
+        <v>0</v>
+      </c>
+      <c r="CR34">
+        <v>0</v>
+      </c>
+      <c r="CS34">
+        <v>0</v>
+      </c>
+      <c r="CT34">
+        <v>0</v>
+      </c>
+      <c r="CU34">
+        <v>0</v>
+      </c>
+      <c r="CV34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:80">
+    <row r="35" spans="1:100">
       <c r="A35">
         <v>8</v>
       </c>
@@ -9486,19 +11048,79 @@
         <v>0</v>
       </c>
       <c r="BY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA35">
         <v>0</v>
       </c>
       <c r="CB35">
+        <v>0</v>
+      </c>
+      <c r="CC35">
+        <v>0</v>
+      </c>
+      <c r="CD35">
+        <v>0</v>
+      </c>
+      <c r="CE35">
+        <v>0</v>
+      </c>
+      <c r="CF35">
+        <v>0</v>
+      </c>
+      <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
+        <v>0</v>
+      </c>
+      <c r="CI35">
+        <v>0</v>
+      </c>
+      <c r="CJ35">
+        <v>0</v>
+      </c>
+      <c r="CK35">
+        <v>0</v>
+      </c>
+      <c r="CL35">
+        <v>0</v>
+      </c>
+      <c r="CM35">
+        <v>0</v>
+      </c>
+      <c r="CN35">
+        <v>0</v>
+      </c>
+      <c r="CO35">
+        <v>2</v>
+      </c>
+      <c r="CP35">
+        <v>2</v>
+      </c>
+      <c r="CQ35">
+        <v>2</v>
+      </c>
+      <c r="CR35">
+        <v>2</v>
+      </c>
+      <c r="CS35">
+        <v>2</v>
+      </c>
+      <c r="CT35">
+        <v>2</v>
+      </c>
+      <c r="CU35">
+        <v>2</v>
+      </c>
+      <c r="CV35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:80">
+    <row r="36" spans="1:100">
       <c r="A36">
         <v>8</v>
       </c>
@@ -9515,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -9524,7 +11146,7 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -9737,10 +11359,70 @@
         <v>0</v>
       </c>
       <c r="CB36">
+        <v>0</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CD36">
+        <v>0</v>
+      </c>
+      <c r="CE36">
+        <v>0</v>
+      </c>
+      <c r="CF36">
+        <v>0</v>
+      </c>
+      <c r="CG36">
+        <v>23</v>
+      </c>
+      <c r="CH36">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
+        <v>0</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36">
+        <v>0</v>
+      </c>
+      <c r="CN36">
+        <v>0</v>
+      </c>
+      <c r="CO36">
+        <v>0</v>
+      </c>
+      <c r="CP36">
+        <v>0</v>
+      </c>
+      <c r="CQ36">
+        <v>0</v>
+      </c>
+      <c r="CR36">
+        <v>0</v>
+      </c>
+      <c r="CS36">
+        <v>0</v>
+      </c>
+      <c r="CT36">
+        <v>0</v>
+      </c>
+      <c r="CU36">
+        <v>0</v>
+      </c>
+      <c r="CV36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:80">
+    <row r="37" spans="1:100">
       <c r="A37">
         <v>8</v>
       </c>
@@ -9901,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC37">
         <v>4</v>
@@ -9979,10 +11661,70 @@
         <v>0</v>
       </c>
       <c r="CB37">
+        <v>0</v>
+      </c>
+      <c r="CC37">
+        <v>0</v>
+      </c>
+      <c r="CD37">
+        <v>0</v>
+      </c>
+      <c r="CE37">
+        <v>0</v>
+      </c>
+      <c r="CF37">
+        <v>0</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>0</v>
+      </c>
+      <c r="CJ37">
+        <v>0</v>
+      </c>
+      <c r="CK37">
+        <v>0</v>
+      </c>
+      <c r="CL37">
+        <v>0</v>
+      </c>
+      <c r="CM37">
+        <v>0</v>
+      </c>
+      <c r="CN37">
+        <v>0</v>
+      </c>
+      <c r="CO37">
+        <v>0</v>
+      </c>
+      <c r="CP37">
+        <v>0</v>
+      </c>
+      <c r="CQ37">
+        <v>0</v>
+      </c>
+      <c r="CR37">
+        <v>0</v>
+      </c>
+      <c r="CS37">
+        <v>0</v>
+      </c>
+      <c r="CT37">
+        <v>0</v>
+      </c>
+      <c r="CU37">
+        <v>0</v>
+      </c>
+      <c r="CV37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:80">
+    <row r="38" spans="1:100">
       <c r="A38">
         <v>8</v>
       </c>
@@ -10221,10 +11963,70 @@
         <v>0</v>
       </c>
       <c r="CB38">
+        <v>0</v>
+      </c>
+      <c r="CC38">
+        <v>0</v>
+      </c>
+      <c r="CD38">
+        <v>0</v>
+      </c>
+      <c r="CE38">
+        <v>0</v>
+      </c>
+      <c r="CF38">
+        <v>0</v>
+      </c>
+      <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
+        <v>0</v>
+      </c>
+      <c r="CI38">
+        <v>0</v>
+      </c>
+      <c r="CJ38">
+        <v>0</v>
+      </c>
+      <c r="CK38">
+        <v>0</v>
+      </c>
+      <c r="CL38">
+        <v>0</v>
+      </c>
+      <c r="CM38">
+        <v>0</v>
+      </c>
+      <c r="CN38">
+        <v>0</v>
+      </c>
+      <c r="CO38">
+        <v>0</v>
+      </c>
+      <c r="CP38">
+        <v>0</v>
+      </c>
+      <c r="CQ38">
+        <v>0</v>
+      </c>
+      <c r="CR38">
+        <v>0</v>
+      </c>
+      <c r="CS38">
+        <v>0</v>
+      </c>
+      <c r="CT38">
+        <v>0</v>
+      </c>
+      <c r="CU38">
+        <v>0</v>
+      </c>
+      <c r="CV38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:80">
+    <row r="39" spans="1:100">
       <c r="A39">
         <v>8</v>
       </c>
@@ -10463,10 +12265,70 @@
         <v>0</v>
       </c>
       <c r="CB39">
+        <v>0</v>
+      </c>
+      <c r="CC39">
+        <v>0</v>
+      </c>
+      <c r="CD39">
+        <v>0</v>
+      </c>
+      <c r="CE39">
+        <v>0</v>
+      </c>
+      <c r="CF39">
+        <v>0</v>
+      </c>
+      <c r="CG39">
+        <v>0</v>
+      </c>
+      <c r="CH39">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>0</v>
+      </c>
+      <c r="CJ39">
+        <v>0</v>
+      </c>
+      <c r="CK39">
+        <v>0</v>
+      </c>
+      <c r="CL39">
+        <v>0</v>
+      </c>
+      <c r="CM39">
+        <v>0</v>
+      </c>
+      <c r="CN39">
+        <v>0</v>
+      </c>
+      <c r="CO39">
+        <v>0</v>
+      </c>
+      <c r="CP39">
+        <v>0</v>
+      </c>
+      <c r="CQ39">
+        <v>0</v>
+      </c>
+      <c r="CR39">
+        <v>0</v>
+      </c>
+      <c r="CS39">
+        <v>0</v>
+      </c>
+      <c r="CT39">
+        <v>0</v>
+      </c>
+      <c r="CU39">
+        <v>0</v>
+      </c>
+      <c r="CV39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:80">
+    <row r="40" spans="1:100">
       <c r="A40">
         <v>8</v>
       </c>
@@ -10705,10 +12567,70 @@
         <v>0</v>
       </c>
       <c r="CB40">
+        <v>0</v>
+      </c>
+      <c r="CC40">
+        <v>0</v>
+      </c>
+      <c r="CD40">
+        <v>0</v>
+      </c>
+      <c r="CE40">
+        <v>0</v>
+      </c>
+      <c r="CF40">
+        <v>0</v>
+      </c>
+      <c r="CG40">
+        <v>0</v>
+      </c>
+      <c r="CH40">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>0</v>
+      </c>
+      <c r="CJ40">
+        <v>0</v>
+      </c>
+      <c r="CK40">
+        <v>0</v>
+      </c>
+      <c r="CL40">
+        <v>0</v>
+      </c>
+      <c r="CM40">
+        <v>0</v>
+      </c>
+      <c r="CN40">
+        <v>0</v>
+      </c>
+      <c r="CO40">
+        <v>0</v>
+      </c>
+      <c r="CP40">
+        <v>0</v>
+      </c>
+      <c r="CQ40">
+        <v>0</v>
+      </c>
+      <c r="CR40">
+        <v>0</v>
+      </c>
+      <c r="CS40">
+        <v>0</v>
+      </c>
+      <c r="CT40">
+        <v>0</v>
+      </c>
+      <c r="CU40">
+        <v>0</v>
+      </c>
+      <c r="CV40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:80">
+    <row r="41" spans="1:100">
       <c r="A41">
         <v>8</v>
       </c>
@@ -10947,10 +12869,70 @@
         <v>0</v>
       </c>
       <c r="CB41">
+        <v>0</v>
+      </c>
+      <c r="CC41">
+        <v>0</v>
+      </c>
+      <c r="CD41">
+        <v>0</v>
+      </c>
+      <c r="CE41">
+        <v>0</v>
+      </c>
+      <c r="CF41">
+        <v>0</v>
+      </c>
+      <c r="CG41">
+        <v>0</v>
+      </c>
+      <c r="CH41">
+        <v>0</v>
+      </c>
+      <c r="CI41">
+        <v>0</v>
+      </c>
+      <c r="CJ41">
+        <v>0</v>
+      </c>
+      <c r="CK41">
+        <v>0</v>
+      </c>
+      <c r="CL41">
+        <v>0</v>
+      </c>
+      <c r="CM41">
+        <v>0</v>
+      </c>
+      <c r="CN41">
+        <v>0</v>
+      </c>
+      <c r="CO41">
+        <v>0</v>
+      </c>
+      <c r="CP41">
+        <v>0</v>
+      </c>
+      <c r="CQ41">
+        <v>0</v>
+      </c>
+      <c r="CR41">
+        <v>0</v>
+      </c>
+      <c r="CS41">
+        <v>0</v>
+      </c>
+      <c r="CT41">
+        <v>0</v>
+      </c>
+      <c r="CU41">
+        <v>0</v>
+      </c>
+      <c r="CV41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:80">
+    <row r="42" spans="1:100">
       <c r="A42">
         <v>8</v>
       </c>
@@ -11189,10 +13171,70 @@
         <v>7</v>
       </c>
       <c r="CB42">
+        <v>0</v>
+      </c>
+      <c r="CC42">
+        <v>0</v>
+      </c>
+      <c r="CD42">
+        <v>0</v>
+      </c>
+      <c r="CE42">
+        <v>0</v>
+      </c>
+      <c r="CF42">
+        <v>0</v>
+      </c>
+      <c r="CG42">
+        <v>0</v>
+      </c>
+      <c r="CH42">
+        <v>0</v>
+      </c>
+      <c r="CI42">
+        <v>0</v>
+      </c>
+      <c r="CJ42">
+        <v>0</v>
+      </c>
+      <c r="CK42">
+        <v>0</v>
+      </c>
+      <c r="CL42">
+        <v>0</v>
+      </c>
+      <c r="CM42">
+        <v>0</v>
+      </c>
+      <c r="CN42">
+        <v>0</v>
+      </c>
+      <c r="CO42">
+        <v>0</v>
+      </c>
+      <c r="CP42">
+        <v>0</v>
+      </c>
+      <c r="CQ42">
+        <v>0</v>
+      </c>
+      <c r="CR42">
+        <v>0</v>
+      </c>
+      <c r="CS42">
+        <v>0</v>
+      </c>
+      <c r="CT42">
+        <v>0</v>
+      </c>
+      <c r="CU42">
+        <v>0</v>
+      </c>
+      <c r="CV42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:80">
+    <row r="43" spans="1:100">
       <c r="A43">
         <v>8</v>
       </c>
@@ -11431,10 +13473,70 @@
         <v>6</v>
       </c>
       <c r="CB43">
+        <v>0</v>
+      </c>
+      <c r="CC43">
+        <v>0</v>
+      </c>
+      <c r="CD43">
+        <v>0</v>
+      </c>
+      <c r="CE43">
+        <v>0</v>
+      </c>
+      <c r="CF43">
+        <v>0</v>
+      </c>
+      <c r="CG43">
+        <v>0</v>
+      </c>
+      <c r="CH43">
+        <v>0</v>
+      </c>
+      <c r="CI43">
+        <v>0</v>
+      </c>
+      <c r="CJ43">
+        <v>0</v>
+      </c>
+      <c r="CK43">
+        <v>0</v>
+      </c>
+      <c r="CL43">
+        <v>0</v>
+      </c>
+      <c r="CM43">
+        <v>0</v>
+      </c>
+      <c r="CN43">
+        <v>0</v>
+      </c>
+      <c r="CO43">
+        <v>0</v>
+      </c>
+      <c r="CP43">
+        <v>0</v>
+      </c>
+      <c r="CQ43">
+        <v>0</v>
+      </c>
+      <c r="CR43">
+        <v>0</v>
+      </c>
+      <c r="CS43">
+        <v>0</v>
+      </c>
+      <c r="CT43">
+        <v>0</v>
+      </c>
+      <c r="CU43">
+        <v>0</v>
+      </c>
+      <c r="CV43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:80">
+    <row r="44" spans="1:100">
       <c r="A44">
         <v>8</v>
       </c>
@@ -11673,10 +13775,70 @@
         <v>6</v>
       </c>
       <c r="CB44">
+        <v>0</v>
+      </c>
+      <c r="CC44">
+        <v>0</v>
+      </c>
+      <c r="CD44">
+        <v>0</v>
+      </c>
+      <c r="CE44">
+        <v>1</v>
+      </c>
+      <c r="CF44">
+        <v>1</v>
+      </c>
+      <c r="CG44">
+        <v>1</v>
+      </c>
+      <c r="CH44">
+        <v>1</v>
+      </c>
+      <c r="CI44">
+        <v>1</v>
+      </c>
+      <c r="CJ44">
+        <v>1</v>
+      </c>
+      <c r="CK44">
+        <v>1</v>
+      </c>
+      <c r="CL44">
+        <v>1</v>
+      </c>
+      <c r="CM44">
+        <v>1</v>
+      </c>
+      <c r="CN44">
+        <v>1</v>
+      </c>
+      <c r="CO44">
+        <v>1</v>
+      </c>
+      <c r="CP44">
+        <v>1</v>
+      </c>
+      <c r="CQ44">
+        <v>1</v>
+      </c>
+      <c r="CR44">
+        <v>1</v>
+      </c>
+      <c r="CS44">
+        <v>0</v>
+      </c>
+      <c r="CT44">
+        <v>0</v>
+      </c>
+      <c r="CU44">
+        <v>0</v>
+      </c>
+      <c r="CV44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:80">
+    <row r="45" spans="1:100">
       <c r="A45">
         <v>8</v>
       </c>
@@ -11915,56 +14077,111 @@
         <v>6</v>
       </c>
       <c r="CB45">
+        <v>0</v>
+      </c>
+      <c r="CC45">
+        <v>0</v>
+      </c>
+      <c r="CD45">
+        <v>0</v>
+      </c>
+      <c r="CE45">
+        <v>1</v>
+      </c>
+      <c r="CF45">
+        <v>1</v>
+      </c>
+      <c r="CG45">
+        <v>1</v>
+      </c>
+      <c r="CH45">
+        <v>1</v>
+      </c>
+      <c r="CI45">
+        <v>1</v>
+      </c>
+      <c r="CJ45">
+        <v>1</v>
+      </c>
+      <c r="CK45">
+        <v>1</v>
+      </c>
+      <c r="CL45">
+        <v>1</v>
+      </c>
+      <c r="CM45">
+        <v>1</v>
+      </c>
+      <c r="CN45">
+        <v>1</v>
+      </c>
+      <c r="CO45">
+        <v>1</v>
+      </c>
+      <c r="CP45">
+        <v>1</v>
+      </c>
+      <c r="CQ45">
+        <v>1</v>
+      </c>
+      <c r="CR45">
+        <v>1</v>
+      </c>
+      <c r="CS45">
+        <v>0</v>
+      </c>
+      <c r="CT45">
+        <v>0</v>
+      </c>
+      <c r="CU45">
+        <v>0</v>
+      </c>
+      <c r="CV45">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BL29">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI18;A1:BH45">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH1:BH45;BI18">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI18;A10:BH45">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>8</formula>
+  <conditionalFormatting sqref="BQ24">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>23</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>